--- a/test.xlsx
+++ b/test.xlsx
@@ -489,14 +489,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>* 131      0004.02df.45e7    dynamic   500        F    F  Eth104/1/15</t>
+          <t>* 131      0004.02df.45e7    dynamic   220        F    F  Eth104/1/15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>* 131      0004.02e7.1333    dynamic   690        F    F  Eth104/1/14</t>
+          <t>* 131      0004.02e7.1333    dynamic   410        F    F  Eth104/1/14</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>* 131      001e.674d.852a    dynamic   30         F    F  Eth105/1/7</t>
+          <t>* 131      001e.674d.852a    dynamic   20         F    F  Eth105/1/7</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>* 131      009c.029f.f566    dynamic   110        F    F  Eth105/1/14</t>
+          <t>* 131      009c.029f.f566    dynamic   370        F    F  Eth105/1/14</t>
         </is>
       </c>
     </row>
@@ -538,14 +538,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>* 131      80c1.6e78.74f8    dynamic   970        F    F  Eth104/1/13</t>
+          <t>* 131      80c1.6e78.74f8    dynamic   720        F    F  Eth104/1/13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>* 131      ac16.2d6f.5eac    dynamic   30         F    F  Po22</t>
+          <t>* 131      ac16.2d6f.5eac    dynamic   20         F    F  Po22</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>* 130      0004.02e7.c325    dynamic   780        F    F  Eth102/1/9</t>
+          <t>* 130      0004.02e7.c325    dynamic   500        F    F  Eth102/1/9</t>
         </is>
       </c>
     </row>
@@ -573,14 +573,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>* 130      001c.7364.8008    dynamic   10         F    F  Eth102/1/1</t>
+          <t>* 130      001c.7364.8008    dynamic   190        F    F  Eth102/1/1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>* 130      0026.5534.c1f6    dynamic   30         F    F  Eth103/1/2</t>
+          <t>* 130      0026.5534.c1f6    dynamic   870        F    F  Eth103/1/2</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>* 130      00c0.b79a.a368    dynamic   10         F    F  Eth102/1/11</t>
+          <t>* 130      00c0.b79a.a368    dynamic   0          F    F  Eth102/1/11</t>
         </is>
       </c>
     </row>
@@ -622,42 +622,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>* 130      00c0.b79a.a388    dynamic   10         F    F  Eth102/1/21</t>
+          <t>* 130      00c0.b79a.a388    dynamic   0          F    F  Eth102/1/21</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>* 130      00c0.b79a.a38c    dynamic   10         F    F  Eth102/1/22</t>
+          <t>* 130      00c0.b79a.a38c    dynamic   0          F    F  Eth102/1/22</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>* 130      00c0.b79a.a38d    dynamic   10         F    F  Eth102/1/2</t>
+          <t>* 130      00c0.b79a.a38d    dynamic   0          F    F  Eth102/1/2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>* 130      0c42.a115.b500    dynamic   40         F    F  Eth100/1/14</t>
+          <t>* 130      0c42.a115.b500    dynamic   300        F    F  Eth100/1/14</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>* 130      0c42.a19e.24d8    dynamic   40         F    F  Eth100/1/12</t>
+          <t>* 130      0c42.a19e.24d8    dynamic   30         F    F  Eth100/1/12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>* 130      0c42.a1aa.971a    dynamic   30         F    F  Eth101/1/13</t>
+          <t>* 130      0c42.a1aa.971a    dynamic   20         F    F  Eth101/1/13</t>
         </is>
       </c>
     </row>
@@ -671,21 +671,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>* 130      506b.4b38.88e6    dynamic   40         F    F  Eth100/1/9</t>
+          <t>* 130      506b.4b38.88e6    dynamic   30         F    F  Eth100/1/9</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>* 130      6cb3.113c.a2ac    dynamic   810        F    F  Po28</t>
+          <t>* 130      6cb3.113c.a2ac    dynamic   610        F    F  Po28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>* 130      90e2.bac9.b14c    dynamic   40         F    F  Eth100/1/2</t>
+          <t>* 130      90e2.bac9.b14c    dynamic   30         F    F  Eth100/1/2</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>* 130      ac1f.6bf9.ced9    dynamic   780        F    F  Eth102/1/14</t>
+          <t>* 130      ac1f.6bf9.ced9    dynamic   500        F    F  Eth102/1/14</t>
         </is>
       </c>
     </row>
@@ -727,28 +727,28 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>* 130      ac1f.6bfa.756c    dynamic   780        F    F  Eth102/1/12</t>
+          <t>* 130      ac1f.6bfa.756c    dynamic   500        F    F  Eth102/1/12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>* 130      b07b.25eb.a498    dynamic   780        F    F  Eth102/1/27</t>
+          <t>* 130      b07b.25eb.a498    dynamic   500        F    F  Eth102/1/27</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>* 130      b07b.25f6.d18a    dynamic   780        F    F  Eth102/1/28</t>
+          <t>* 130      b07b.25f6.d18a    dynamic   500        F    F  Eth102/1/28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>* 130      b4b5.2fed.a4b8    dynamic   1660       F    F  Eth102/1/6</t>
+          <t>* 130      b4b5.2fed.a4b8    dynamic   650        F    F  Eth102/1/6</t>
         </is>
       </c>
     </row>
@@ -762,21 +762,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>* 130      e43d.1ad9.ca60    dynamic   40         F    F  Eth100/1/28</t>
+          <t>* 130      e43d.1ad9.ca60    dynamic   30         F    F  Eth100/1/28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>* 130      e43d.1ad9.e740    dynamic   40         F    F  Eth100/1/27</t>
+          <t>* 130      e43d.1ad9.e740    dynamic   30         F    F  Eth100/1/27</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>* 130      ec0d.9a97.8f3c    dynamic   40         F    F  Eth100/1/7</t>
+          <t>* 130      ec0d.9a97.8f3c    dynamic   30         F    F  Eth100/1/7</t>
         </is>
       </c>
     </row>
@@ -864,329 +864,329 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.1    00:13:31  0000.0c9f.f083  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.1    00:08:54  0000.0c9f.f083  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.3    00:15:20  002a.6a7e.c93c  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.3    00:10:43  002a.6a7e.c93c  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172.21.131.18   00:01:25  00c0.b79a.a365  Vlan131          *</t>
+          <t>172.21.131.18   00:01:10  00c0.b79a.a365  Vlan131          *</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172.21.131.31   00:16:58  80c1.6e78.74f8  Vlan131          *</t>
+          <t>172.21.131.31   00:00:16  80c1.6e78.74f8  Vlan131          *</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.32   00:08:12  009c.029f.f566  Vlan131         </t>
+          <t>172.21.131.32   00:10:15  009c.029f.f566  Vlan131          *</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.35   00:08:33  0004.02df.45e7  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.35   00:03:56  0004.02df.45e7  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.36   00:11:54  0004.02e7.1333  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.36   00:07:17  0004.02e7.1333  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.37   00:07:16  0004.02e7.2087  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.37   00:02:39  0004.02e7.2087  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.142  00:12:36  ac16.2d6f.5eac  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.142  00:07:59  ac16.2d6f.5eac  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.131.143  00:12:52  001e.674d.852a  Vlan131         </t>
+          <t xml:space="preserve">172.21.131.143  00:08:15  001e.674d.852a  Vlan131         </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.1    00:13:31  0000.0c9f.f082  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.1    00:08:54  0000.0c9f.f082  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.3    00:14:12  002a.6a7e.c93c  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.3    00:09:35  002a.6a7e.c93c  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>172.21.130.14   00:13:22  00c0.b79a.a38d  Vlan130          *</t>
+          <t>172.21.130.14   00:13:08  00c0.b79a.a38d  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>172.21.130.18   00:12:29  00c0.b79a.a388  Vlan130          *</t>
+          <t>172.21.130.18   00:12:15  00c0.b79a.a388  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>172.21.130.19   00:09:33  00c0.b79a.a38c  Vlan130          *</t>
+          <t>172.21.130.19   00:09:17  00c0.b79a.a38c  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>172.21.130.27   00:01:54  00c0.b79a.a37a  Vlan130          *</t>
+          <t>172.21.130.27   00:01:39  00c0.b79a.a37a  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.28   00:13:38  e43d.1ad9.e740  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.28   00:09:01  e43d.1ad9.e740  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>172.21.130.32   00:09:16  00c0.b79a.a368  Vlan130          *</t>
+          <t>172.21.130.32   00:09:01  00c0.b79a.a368  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>172.21.130.34   00:00:49  00c0.b79a.a385  Vlan130          *</t>
+          <t>172.21.130.34   00:00:34  00c0.b79a.a385  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.41   00:13:04  0c42.a115.b500  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.41   00:08:27  0c42.a115.b500  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.42   00:13:38  ac1f.6bf9.ced9  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.42   00:09:01  ac1f.6bf9.ced9  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.43   00:14:14  e43d.1ad9.e740  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.43   00:09:37  e43d.1ad9.e740  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.44   00:13:40  b07b.25f6.d18a  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.44   00:09:03  b07b.25f6.d18a  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.45   00:13:50  e43d.1ad9.ca60  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.45   00:09:13  e43d.1ad9.ca60  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.46   00:13:24  b07b.25eb.a498  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.46   00:08:47  b07b.25eb.a498  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>172.21.130.92   00:03:08  e007.1bfc.fffc  Vlan130          *</t>
+          <t>172.21.130.92   00:17:16  e007.1bfc.fffc  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>172.21.130.96   00:01:08  0026.5534.c1f6  Vlan130          *</t>
+          <t>172.21.130.96   00:15:16  0026.5534.c1f6  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.99   00:10:07  b4b5.2fed.a4b8  Vlan130         </t>
+          <t>172.21.130.99   00:12:10  b4b5.2fed.a4b8  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.103  00:13:15  0004.02e7.c325  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.103  00:08:38  0004.02e7.c325  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.104  00:08:35  0004.02e7.c331  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.104  00:03:59  0004.02e7.c331  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.161  00:13:50  506b.4b38.88e6  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.161  00:09:13  506b.4b38.88e6  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.162  00:13:07  ec0d.9a97.8f3c  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.162  00:08:30  ec0d.9a97.8f3c  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.163  00:14:04  ac1f.6baa.3593  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.163  00:09:27  ac1f.6baa.3593  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.164  00:13:56  ac1f.6bf9.ebc4  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.164  00:09:19  ac1f.6bf9.ebc4  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.180  00:03:38  0c42.a19e.24d8  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.180  00:17:46  0c42.a19e.24d8  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.181  00:13:38  ac1f.6bfa.756c  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.181  00:09:01  ac1f.6bfa.756c  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.182  00:14:12  0c42.a1aa.971a  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.182  00:09:35  0c42.a1aa.971a  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.183  00:13:18  ac1f.6bfa.14c3  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.183  00:08:41  ac1f.6bfa.14c3  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.184  00:13:42  90e2.bac9.b14c  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.184  00:09:06  90e2.bac9.b14c  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.185  00:14:14  ac1f.6b9f.750f  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.185  00:09:37  ac1f.6b9f.750f  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.231  00:12:47  6cb3.113c.a2ac  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.231  00:08:10  6cb3.113c.a2ac  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.250  00:00:11  001c.7364.8008  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.250  00:04:09  001c.7364.8008  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.252  00:17:41  0040.9d7b.0f3a  Vlan130         </t>
+          <t xml:space="preserve">172.21.130.252  00:13:04  0040.9d7b.0f3a  Vlan130         </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.130.253  00:01:05  441e.a102.463a  Vlan130         </t>
+          <t>172.21.130.253  00:03:21  441e.a102.463a  Vlan130          *</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.98.18    00:14:40  002a.6a7e.c93c  Vlan98          </t>
+          <t xml:space="preserve">172.21.98.18    00:10:03  002a.6a7e.c93c  Vlan98          </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.127.230  00:14:16  70b3.170f.aaff  Ethernet1/24    </t>
+          <t xml:space="preserve">172.21.127.230  00:09:39  70b3.170f.aaff  Ethernet1/24    </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">172.21.127.234  00:14:17  f4db.e6cd.015f  Ethernet1/48    </t>
+          <t xml:space="preserve">172.21.127.234  00:09:40  f4db.e6cd.015f  Ethernet1/48    </t>
         </is>
       </c>
     </row>
